--- a/Excel .NET example/Excel .NET example/xls/Notas.xlsx
+++ b/Excel .NET example/Excel .NET example/xls/Notas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\arduino\gitFiles\arbol_navidad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\arduino\gitFiles\Excel-dotNET-example\Excel .NET example\Excel .NET example\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -995,7 +995,7 @@
   <dimension ref="B1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3695,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3711,7 +3711,10 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>600</v>
+      </c>
       <c r="B1" s="19" t="s">
         <v>201</v>
       </c>
@@ -3720,7 +3723,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>187</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>{nC5,4,8},</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>187</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>{nC5,4,8},</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>188</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>{nC5,2,8},</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>189</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>{nC5,1,8},</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -3810,7 +3813,7 @@
         <v>{nC5,2,8},</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>190</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>{nC5,3,8},</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>191</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>{nB4,4,8},</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>191</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>{nB4,4,8},</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>192</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>{nB4,2,8},</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>193</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>{nB4,1,8},</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>192</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>{nB4,2,8},</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>194</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>{nB4,3,8},</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>187</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>{nC5,4,8},</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>195</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>{nA4,4,8},</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>188</v>
       </c>
